--- a/main/data/driver.xlsx
+++ b/main/data/driver.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\prototype\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\dashboard\main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A811C45-E6E0-4D1B-91F0-87A34D8E1859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321B4B9-07B5-439A-A893-F00F3734B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BF5D0DD9-4EDB-4727-A9A4-291039BC1395}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF5D0DD9-4EDB-4727-A9A4-291039BC1395}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>driver</t>
+    <t>driver_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,31 +211,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -267,18 +249,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,238 +576,239 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
